--- a/Study 3/Shocks/GCAM/CP_EI - 2050.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2050.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.01076012308148992</v>
+        <v>0.01076012308148993</v>
       </c>
     </row>
     <row r="3">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.03401490109259047</v>
+        <v>0.03401490109259048</v>
       </c>
     </row>
     <row r="5">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.07406366377018567</v>
+        <v>0.07406366377018568</v>
       </c>
     </row>
     <row r="6">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2416616298614121</v>
+        <v>0.2416616298614122</v>
       </c>
     </row>
     <row r="9">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.005378903946666987</v>
+        <v>0.005378903946666988</v>
       </c>
     </row>
     <row r="10">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.01736501464462417</v>
+        <v>0.01736501464462418</v>
       </c>
     </row>
     <row r="11">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1641843012010392</v>
+        <v>0.1641843012010393</v>
       </c>
     </row>
     <row r="19">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.09830657996176831</v>
+        <v>0.09830657996176832</v>
       </c>
     </row>
     <row r="21">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.04445775983810475</v>
+        <v>0.04445775983810476</v>
       </c>
     </row>
     <row r="22">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.1805635216916279</v>
+        <v>0.180563521691628</v>
       </c>
     </row>
     <row r="23">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.09780366794444943</v>
+        <v>0.09780366794444945</v>
       </c>
     </row>
     <row r="25">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0004347515028954287</v>
+        <v>0.0004347515028954288</v>
       </c>
     </row>
     <row r="27">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.05896511235460525</v>
+        <v>0.05896511235460526</v>
       </c>
     </row>
     <row r="29">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.0004813866161701861</v>
+        <v>0.0004813866161701862</v>
       </c>
     </row>
     <row r="31">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.007557253346443505</v>
+        <v>0.007557253346443506</v>
       </c>
     </row>
     <row r="34">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.08423987622690857</v>
+        <v>0.08423987622690858</v>
       </c>
     </row>
     <row r="39">
